--- a/cb_son2.xlsx
+++ b/cb_son2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t xml:space="preserve">Tarih</t>
   </si>
@@ -35,10 +35,88 @@
     <t xml:space="preserve">Ay</t>
   </si>
   <si>
+    <t xml:space="preserve">27 Nis-5 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avrasya 6 Mayıs 2023 tarihinde Wayback Machine sitesinde arşivlendi.[a 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayıs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-3 Mayıs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Areda Survey[a 2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 Nisan-2 Mayıs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İvem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 Nisan-2 Mayıs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASAL 5 Mayıs 2023 tarihinde Wayback Machine sitesinde arşivlendi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-30 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yöneylem 4 Mayıs 2023 tarihinde Wayback Machine sitesinde arşivlendi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-30 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAROS 3 Mayıs 2023 tarihinde Wayback Machine sitesinde arşivlendi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.284</t>
+  </si>
+  <si>
     <t xml:space="preserve">25-29 Nisan</t>
   </si>
   <si>
-    <t xml:space="preserve">Optimar</t>
+    <t xml:space="preserve">Optimar[a 3]</t>
   </si>
   <si>
     <t xml:space="preserve">3.005</t>
@@ -47,21 +125,48 @@
     <t xml:space="preserve">2023-04-29</t>
   </si>
   <si>
-    <t xml:space="preserve">Nisan</t>
+    <t xml:space="preserve">26-28 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aksoy 1 Mayıs 2023 tarihinde Wayback Machine sitesinde arşivlendi.[a 4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-27 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-26 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gezici 2 Mayıs 2023 tarihinde Wayback Machine sitesinde arşivlendi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-26</t>
   </si>
   <si>
     <t xml:space="preserve">23-26 Nisan</t>
   </si>
   <si>
-    <t xml:space="preserve">TEAM</t>
+    <t xml:space="preserve">TEAM 30 Nisan 2023 tarihinde Wayback Machine sitesinde arşivlendi.</t>
   </si>
   <si>
     <t xml:space="preserve">3.054</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-04-26</t>
-  </si>
-  <si>
     <t xml:space="preserve">17-25 Nisan</t>
   </si>
   <si>
@@ -77,7 +182,7 @@
     <t xml:space="preserve">17-24 Nisan</t>
   </si>
   <si>
-    <t xml:space="preserve">Artıbir</t>
+    <t xml:space="preserve">Artıbir 26 Nisan 2023 tarihinde Wayback Machine sitesinde arşivlendi.</t>
   </si>
   <si>
     <t xml:space="preserve">1.500</t>
@@ -89,7 +194,7 @@
     <t xml:space="preserve">15-24 Nisan</t>
   </si>
   <si>
-    <t xml:space="preserve">Bulgu</t>
+    <t xml:space="preserve">Bulgu 29 Nisan 2023 tarihinde Wayback Machine sitesinde arşivlendi.</t>
   </si>
   <si>
     <t xml:space="preserve">2.400</t>
@@ -98,7 +203,7 @@
     <t xml:space="preserve">12-20 Nisan</t>
   </si>
   <si>
-    <t xml:space="preserve">Area</t>
+    <t xml:space="preserve">Area 24 Nisan 2023 tarihinde Wayback Machine sitesinde arşivlendi.</t>
   </si>
   <si>
     <t xml:space="preserve">10.277</t>
@@ -110,7 +215,7 @@
     <t xml:space="preserve">15-20 Nisan</t>
   </si>
   <si>
-    <t xml:space="preserve">Areda Survey[a 2]</t>
+    <t xml:space="preserve">Areda Survey 20 Nisan 2023 tarihinde Wayback Machine sitesinde arşivlendi.[a 2]</t>
   </si>
   <si>
     <t xml:space="preserve">17.400</t>
@@ -119,7 +224,7 @@
     <t xml:space="preserve">10-16 Nisan</t>
   </si>
   <si>
-    <t xml:space="preserve">SONAR</t>
+    <t xml:space="preserve">SONAR 23 Nisan 2023 tarihinde Wayback Machine sitesinde arşivlendi.</t>
   </si>
   <si>
     <t xml:space="preserve">4.541</t>
@@ -128,12 +233,21 @@
     <t xml:space="preserve">2023-04-16</t>
   </si>
   <si>
+    <t xml:space="preserve">5-15 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBS 1 Mayıs 2023 tarihinde Wayback Machine sitesinde arşivlendi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-15</t>
+  </si>
+  <si>
     <t xml:space="preserve">12-14 Nisan</t>
   </si>
   <si>
-    <t xml:space="preserve">Areda Survey [a 2]</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.136</t>
   </si>
   <si>
@@ -143,7 +257,7 @@
     <t xml:space="preserve">1-7 Nisan</t>
   </si>
   <si>
-    <t xml:space="preserve">Optimar[a 1]</t>
+    <t xml:space="preserve">Optimar 8 Nisan 2023 tarihinde Wayback Machine sitesinde arşivlendi.[a 3]</t>
   </si>
   <si>
     <t xml:space="preserve">4.745</t>
@@ -155,7 +269,7 @@
     <t xml:space="preserve">1-2 Nisan</t>
   </si>
   <si>
-    <t xml:space="preserve">Gezici</t>
+    <t xml:space="preserve">Gezici 12 Nisan 2023 tarihinde Wayback Machine sitesinde arşivlendi.</t>
   </si>
   <si>
     <t xml:space="preserve">2.864</t>
@@ -167,7 +281,7 @@
     <t xml:space="preserve">25 Mart-2 Nisan</t>
   </si>
   <si>
-    <t xml:space="preserve">ASAL</t>
+    <t xml:space="preserve">ASAL 6 Nisan 2023 tarihinde Wayback Machine sitesinde arşivlendi.</t>
   </si>
   <si>
     <t xml:space="preserve">2.147</t>
@@ -176,6 +290,9 @@
     <t xml:space="preserve">28 Mart-1 Nisan</t>
   </si>
   <si>
+    <t xml:space="preserve">Areda Survey 10 Nisan 2023 tarihinde Wayback Machine sitesinde arşivlendi.[a 2]</t>
+  </si>
+  <si>
     <t xml:space="preserve">18.478</t>
   </si>
   <si>
@@ -185,102 +302,105 @@
     <t xml:space="preserve">–</t>
   </si>
   <si>
-    <t xml:space="preserve">GENAR[a 5]</t>
+    <t xml:space="preserve">GENAR 20 Nisan 2023 tarihinde Wayback Machine sitesinde arşivlendi.[a 5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aksoy 18 Nisan 2023 tarihinde Wayback Machine sitesinde arşivlendi.[a 4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İEA 17 Nisan 2023 tarihinde Wayback Machine sitesinde arşivlendi.[no 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAROS 9 Nisan 2023 tarihinde Wayback Machine sitesinde arşivlendi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-29 Mart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yöneylem 6 Nisan 2023 tarihinde Wayback Machine sitesinde arşivlendi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-17 Mart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avrasya[a 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-15 Mart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgu 21 Mart 2023 tarihinde Wayback Machine sitesinde arşivlendi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-14 Mart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetroPOLL 31 Mart 2023 tarihinde Wayback Machine sitesinde arşivlendi.[no 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-10 Mart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-9 Mart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Mart</t>
   </si>
   <si>
     <t xml:space="preserve">Aksoy[a 4]</t>
   </si>
   <si>
-    <t xml:space="preserve">1.067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İEA[no 2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-29 Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yöneylem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-17 Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avrasya [a 3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-15 Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-14 Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetroPOLL[no 2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-10 Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-9 Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.537</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-03-08</t>
   </si>
   <si>
@@ -299,7 +419,13 @@
     <t xml:space="preserve">2023-03-01</t>
   </si>
   <si>
+    <t xml:space="preserve">SAROS 21 Mart 2023 tarihinde Wayback Machine sitesinde arşivlendi.</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENAR 19 Mart 2023 tarihinde Wayback Machine sitesinde arşivlendi.[a 5]</t>
   </si>
   <si>
     <t xml:space="preserve">3.000</t>
@@ -674,10 +800,10 @@
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>51.4</v>
+        <v>45.7</v>
       </c>
       <c r="E2" t="n">
-        <v>48.6</v>
+        <v>54.3</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -697,10 +823,10 @@
         <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>47.5</v>
+        <v>53.3</v>
       </c>
       <c r="E3" t="n">
-        <v>52.5</v>
+        <v>46.7</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -720,10 +846,10 @@
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>51.1</v>
+        <v>51.5</v>
       </c>
       <c r="E4" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -743,13 +869,13 @@
         <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>46.4</v>
+        <v>52.1</v>
       </c>
       <c r="E5" t="n">
-        <v>53.6</v>
+        <v>47.9</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -757,22 +883,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="n">
-        <v>44.4</v>
+        <v>50.8</v>
       </c>
       <c r="E6" t="n">
-        <v>55.6</v>
+        <v>49.2</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -780,600 +906,853 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>50.7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
       <c r="D8" t="n">
-        <v>53.5</v>
+        <v>48.8</v>
       </c>
       <c r="E8" t="n">
-        <v>46.5</v>
+        <v>51.2</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="F10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="E10" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="F11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="F12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="E12" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
       <c r="D13" t="n">
-        <v>51.4</v>
+        <v>47.5</v>
       </c>
       <c r="E13" t="n">
-        <v>48.6</v>
+        <v>52.5</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="F14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="E14" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" t="n">
-        <v>48.1</v>
+        <v>46.4</v>
       </c>
       <c r="E15" t="n">
-        <v>51.9</v>
+        <v>53.6</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D16" t="n">
-        <v>51.7</v>
+        <v>44.4</v>
       </c>
       <c r="E16" t="n">
-        <v>48.3</v>
+        <v>55.6</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D17" t="n">
-        <v>42.6</v>
+        <v>49.3</v>
       </c>
       <c r="E17" t="n">
-        <v>57.4</v>
+        <v>50.7</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D18" t="n">
-        <v>47.1</v>
+        <v>53.5</v>
       </c>
       <c r="E18" t="n">
-        <v>52.9</v>
+        <v>46.5</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D19" t="n">
-        <v>49.7</v>
+        <v>52.1</v>
       </c>
       <c r="E19" t="n">
-        <v>50.3</v>
+        <v>47.9</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D20" t="n">
-        <v>44.9</v>
+        <v>49.3</v>
       </c>
       <c r="E20" t="n">
-        <v>55.1</v>
+        <v>50.7</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D21" t="n">
-        <v>43</v>
+        <v>52.6</v>
       </c>
       <c r="E21" t="n">
-        <v>57</v>
+        <v>47.4</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D22" t="n">
-        <v>46.3</v>
+        <v>51.1</v>
       </c>
       <c r="E22" t="n">
-        <v>53.7</v>
+        <v>48.9</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D23" t="n">
-        <v>48.5</v>
+        <v>44.8</v>
       </c>
       <c r="E23" t="n">
-        <v>51.5</v>
+        <v>55.2</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D24" t="n">
-        <v>53.7</v>
+        <v>51.4</v>
       </c>
       <c r="E24" t="n">
-        <v>46.3</v>
+        <v>48.6</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="D25" t="n">
-        <v>45.5</v>
+        <v>52.8</v>
       </c>
       <c r="E25" t="n">
-        <v>54.5</v>
+        <v>47.2</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D26" t="n">
-        <v>44.4</v>
+        <v>48.1</v>
       </c>
       <c r="E26" t="n">
-        <v>55.6</v>
+        <v>51.9</v>
       </c>
       <c r="F26" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D27" t="n">
-        <v>44.9</v>
+        <v>51.7</v>
       </c>
       <c r="E27" t="n">
-        <v>55.1</v>
+        <v>48.3</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D28" t="n">
-        <v>47.9</v>
+        <v>42.6</v>
       </c>
       <c r="E28" t="n">
-        <v>52.1</v>
+        <v>57.4</v>
       </c>
       <c r="F28" t="s">
         <v>94</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D29" t="n">
-        <v>43.2</v>
+        <v>47.1</v>
       </c>
       <c r="E29" t="n">
-        <v>56.8</v>
+        <v>52.9</v>
       </c>
       <c r="F29" t="s">
         <v>94</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D30" t="n">
-        <v>46.3</v>
+        <v>49.7</v>
       </c>
       <c r="E30" t="n">
-        <v>53.7</v>
+        <v>50.3</v>
       </c>
       <c r="F30" t="s">
         <v>94</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D31" t="n">
-        <v>52.3</v>
+        <v>44.9</v>
       </c>
       <c r="E31" t="n">
-        <v>47.7</v>
+        <v>55.1</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D32" t="n">
+        <v>43</v>
+      </c>
+      <c r="E32" t="n">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="E35" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E38" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="E39" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" t="n">
         <v>42.9</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E43" t="n">
         <v>57.1</v>
       </c>
-      <c r="F32" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" t="s">
-        <v>68</v>
+      <c r="F43" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
